--- a/receiver_data/all_vemco_receivers.xlsx
+++ b/receiver_data/all_vemco_receivers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindseylabrie/Desktop/telemetry_data/receiver_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindseylabrie/Documents/GitHub/telemetry/receiver_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98C90A1-34C2-E24A-BF1C-C33F45A5FE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678DBD7C-6145-0C49-8C42-1C0D8C70C07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11380" yWindow="500" windowWidth="15140" windowHeight="13820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="23100" windowHeight="13820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>Vr2Tx</t>
   </si>
@@ -182,6 +182,12 @@
   <si>
     <t>rkm</t>
   </si>
+  <si>
+    <t>blair_receiver</t>
+  </si>
+  <si>
+    <t>blair ne</t>
+  </si>
 </sst>
 </file>
 
@@ -247,7 +253,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -346,11 +352,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -476,6 +497,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -697,8 +739,8 @@
   </sheetPr>
   <dimension ref="A1:I1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1176,33 +1218,45 @@
       <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22" s="45">
         <v>44.341602999999999</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="45">
         <v>-98.191371000000004</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="39">
+      <c r="E22" s="46"/>
+      <c r="F22" s="47">
         <v>356.4</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="27"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="41"/>
+    <row r="23" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="49">
+        <v>41.551037999999998</v>
+      </c>
+      <c r="C23" s="49">
+        <v>-96.095665999999994</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="51">
+        <v>-236</v>
+      </c>
       <c r="G23" s="16"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
